--- a/07_振り返り/35_開発体験シート.xlsx
+++ b/07_振り返り/35_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8FA39D-2B1A-4635-AF46-714666C0F708}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9F6D9-3950-4704-94B5-850C1F1F87D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -539,6 +539,133 @@
   </si>
   <si>
     <t>●</t>
+  </si>
+  <si>
+    <t>日報による記録を行った。</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作ごとにクラスを分割した。(第二反復)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンプク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの大まかな流れを把握できた。</t>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お金の引き渡しに必要な引数及びメソッドを考えた</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのタイミングで他クラスにお金を受け渡すか考えた</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのメソッドにをどのタイミングで呼び出すかを明記する必要があった。</t>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決められた時間の中で要点に絞って発表することを意識できた。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウテン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1732,10 +1859,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1774,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="66" t="s">
         <v>7</v>
       </c>
@@ -1787,13 +1914,14 @@
       <c r="E9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" s="38"/>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="67"/>
@@ -1806,13 +1934,17 @@
       <c r="E10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
-        <v>－</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>○</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="68"/>
@@ -1825,7 +1957,9 @@
       <c r="E11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1846,13 +1980,17 @@
       <c r="E12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G12" s="42"/>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="69"/>
@@ -1865,7 +2003,9 @@
       <c r="E13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
@@ -1905,13 +2045,17 @@
       <c r="E15" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="42"/>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
@@ -1924,13 +2068,17 @@
       <c r="E16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="71"/>
@@ -1964,7 +2112,9 @@
       <c r="E18" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
@@ -1981,7 +2131,9 @@
       <c r="E19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2002,7 +2154,9 @@
       <c r="E20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
@@ -2019,7 +2173,9 @@
       <c r="E21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2038,13 +2194,17 @@
       <c r="E22" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G22" s="39"/>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="60"/>
@@ -2055,7 +2215,9 @@
       <c r="E23" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
@@ -2074,7 +2236,9 @@
       <c r="E24" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2091,7 +2255,9 @@
       <c r="E25" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2112,7 +2278,9 @@
       <c r="E26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G26" s="42"/>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
@@ -2129,7 +2297,9 @@
       <c r="E27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2146,13 +2316,17 @@
       <c r="E28" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G28" s="40"/>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="54" t="s">
@@ -2167,7 +2341,9 @@
       <c r="E29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G29" s="42"/>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
@@ -2184,7 +2360,9 @@
       <c r="E30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G30" s="39"/>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2201,7 +2379,9 @@
       <c r="E31" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="39"/>
+      <c r="F31" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G31" s="39"/>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2220,13 +2400,17 @@
       <c r="E32" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
-        <v>－</v>
-      </c>
-      <c r="I32" s="9"/>
+        <v>○</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="55"/>
@@ -2237,7 +2421,9 @@
       <c r="E33" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2254,7 +2440,9 @@
       <c r="E34" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G34" s="39"/>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2273,7 +2461,9 @@
       <c r="E35" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="G35" s="41"/>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2290,7 +2480,9 @@
       <c r="E36" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="39"/>
+      <c r="F36" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2307,7 +2499,9 @@
       <c r="E37" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2341,21 +2535,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2539,24 +2718,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDF39E60-BC06-4435-8D52-0FCBC25DB313}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2572,4 +2749,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>